--- a/Compose_test_cases.xlsx
+++ b/Compose_test_cases.xlsx
@@ -174,6 +174,187 @@
         <rFont val="Candara"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve"> Ram is on Gmail Dashboard,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> he clicks on the Compose button,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Compose window should be opened,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> he could add Recipients mail,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>But</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> when Invalid Email is added,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> it should be discarded,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> he could add the Subject,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> he could add the Body,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> then he could send the Email. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> jay is on Gmail Dashboard,
 </t>
     </r>
@@ -194,7 +375,7 @@
         <rFont val="Candara"/>
         <family val="2"/>
       </rPr>
-      <t>when he clicks on compose button,</t>
+      <t>when he clicks on Compose button,</t>
     </r>
     <r>
       <rPr>
@@ -205,16 +386,16 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-Then </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">compose window should be opened,
+Then C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ompose window should be opened,
 </t>
     </r>
     <r>
@@ -315,187 +496,6 @@
       </rPr>
       <t xml:space="preserve"> 
  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Ram is on Gmail Dashboard,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> he clicks on the Compose button,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Compose window should be opened,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t>And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> he could add Recipients mail,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t>But</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> when Invalid Email is added,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> it should be discarded,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t>And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> he could add the Subject,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t>And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> he could add the Body,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t>And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> then he could send the Email. </t>
     </r>
   </si>
 </sst>
@@ -503,19 +503,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Candara"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -536,12 +530,6 @@
       <name val="C"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="C"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Candara"/>
@@ -550,6 +538,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Candara"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Candara"/>
       <family val="2"/>
@@ -593,37 +588,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -907,398 +905,398 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:G44"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="67" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" ht="18">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="18">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="18" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="18" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="18" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="18" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="18" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="18" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="18" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="18" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="18">
+      <c r="A26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="34" spans="1:7" ht="18">
+      <c r="A34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A35" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="17.399999999999999">
-      <c r="A26" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="34" spans="1:7" ht="18">
-      <c r="A34" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A35" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
     </row>
     <row r="40" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
     </row>
     <row r="41" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
     </row>
     <row r="42" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
     </row>
     <row r="43" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
     </row>
     <row r="44" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1306,11 +1304,11 @@
     <mergeCell ref="A27:G32"/>
     <mergeCell ref="A34:G34"/>
     <mergeCell ref="A35:G44"/>
-    <mergeCell ref="A1:G5"/>
     <mergeCell ref="A7:G13"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A16:G24"/>
+    <mergeCell ref="A1:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
